--- a/src/assets/ec-product-db/ec-product-table.xlsx
+++ b/src/assets/ec-product-db/ec-product-table.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="3540" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="11220" yWindow="3540" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="１" sheetId="1" r:id="rId1"/>
     <sheet name="２" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>ID</t>
   </si>
@@ -304,6 +305,22 @@
   </si>
   <si>
     <t>Tシャツ ダミーレコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SKU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T-SHIRT-S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリエーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリエーションID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -457,7 +474,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -497,8 +514,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -551,35 +570,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="41">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -599,6 +624,7 @@
     <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -619,10 +645,92 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>889001</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>67673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6972301" y="723900"/>
+          <a:ext cx="4699000" cy="1032873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>558799</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>368300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877299" y="825500"/>
+          <a:ext cx="3810001" cy="3733800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -949,7 +1057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:K28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
@@ -982,7 +1090,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="3"/>
@@ -1201,7 +1309,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="28" t="s">
+      <c r="G21" s="21" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="3"/>
@@ -1696,10 +1804,10 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="19">
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="26"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="9" t="s">
         <v>24</v>
       </c>
@@ -1709,7 +1817,7 @@
       <c r="I20" s="22">
         <v>301</v>
       </c>
-      <c r="J20" s="27"/>
+      <c r="J20" s="26"/>
       <c r="K20" s="10">
         <v>10</v>
       </c>
@@ -1719,7 +1827,7 @@
       <c r="I21" s="22">
         <v>301</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="10">
         <v>21</v>
       </c>
@@ -1729,7 +1837,7 @@
       <c r="I22" s="22">
         <v>302</v>
       </c>
-      <c r="J22" s="27"/>
+      <c r="J22" s="26"/>
       <c r="K22" s="10">
         <v>11</v>
       </c>
@@ -1801,43 +1909,37 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="19">
-      <c r="I30" s="20">
+      <c r="I30" s="28">
         <v>306</v>
       </c>
-      <c r="J30" s="24"/>
+      <c r="J30" s="30"/>
       <c r="K30" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="19">
-      <c r="I31" s="19">
+      <c r="I31" s="27">
         <v>306</v>
       </c>
-      <c r="J31" s="20"/>
+      <c r="J31" s="28"/>
       <c r="K31" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="19">
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
     </row>
     <row r="33" spans="9:12" ht="19">
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
@@ -1847,6 +1949,12 @@
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1860,6 +1968,210 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="3" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="6" width="1.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" ht="61" customHeight="1"/>
+    <row r="6" spans="1:9" ht="19">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="19">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="19">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="19">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="19">
+      <c r="A10" s="1"/>
+      <c r="B10" s="19">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="19">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="10">
+        <v>10</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="19">
+      <c r="A11" s="1"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="10">
+        <v>11</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="19">
+      <c r="A12" s="1"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="10">
+        <v>12</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="19">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="19">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" ht="19">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="19">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="19">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="19">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/src/assets/ec-product-db/ec-product-table.xlsx
+++ b/src/assets/ec-product-db/ec-product-table.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="3540" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="11220" yWindow="3540" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="１" sheetId="1" r:id="rId1"/>
     <sheet name="２" sheetId="3" r:id="rId2"/>
     <sheet name="3" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>ID</t>
   </si>
@@ -321,6 +322,121 @@
   </si>
   <si>
     <t>バリエーションID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A社のTシャツ</t>
+    <rPh sb="1" eb="2">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S社のチョコレート</t>
+    <rPh sb="1" eb="2">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品属性</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示名</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウジメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランド名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製造元</t>
+    <rPh sb="0" eb="3">
+      <t>セイゾウモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存方法</t>
+    <rPh sb="0" eb="4">
+      <t>ホゾンホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アレルギー情報</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賞味期限(製造日からの日数)</t>
+    <rPh sb="0" eb="4">
+      <t>ショウミキゲン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイゾウビ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性値</t>
+    <rPh sb="0" eb="3">
+      <t>ゾクセイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性ID</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Railsシリーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社ABC</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要冷蔵</t>
+    <rPh sb="0" eb="3">
+      <t>ヨウレイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乳</t>
+    <rPh sb="0" eb="1">
+      <t>ニュウギュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -474,7 +590,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -516,8 +632,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -576,12 +696,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,20 +726,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="45">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -625,6 +748,8 @@
     <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -646,6 +771,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1804,142 +1931,148 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="19">
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="25"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" ht="19">
-      <c r="I20" s="22">
+      <c r="I20" s="26">
         <v>301</v>
       </c>
-      <c r="J20" s="26"/>
+      <c r="J20" s="31"/>
       <c r="K20" s="10">
         <v>10</v>
       </c>
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" ht="19">
-      <c r="I21" s="22">
+      <c r="I21" s="26">
         <v>301</v>
       </c>
-      <c r="J21" s="26"/>
+      <c r="J21" s="31"/>
       <c r="K21" s="10">
         <v>21</v>
       </c>
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="19">
-      <c r="I22" s="22">
+      <c r="I22" s="26">
         <v>302</v>
       </c>
-      <c r="J22" s="26"/>
+      <c r="J22" s="31"/>
       <c r="K22" s="10">
         <v>11</v>
       </c>
       <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" ht="19">
-      <c r="I23" s="22">
+      <c r="I23" s="26">
         <v>302</v>
       </c>
-      <c r="J23" s="23"/>
+      <c r="J23" s="27"/>
       <c r="K23" s="10">
         <v>21</v>
       </c>
       <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12" ht="19">
-      <c r="I24" s="22">
+      <c r="I24" s="26">
         <v>303</v>
       </c>
-      <c r="J24" s="23"/>
+      <c r="J24" s="27"/>
       <c r="K24" s="10">
         <v>12</v>
       </c>
       <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12" ht="19">
-      <c r="I25" s="22">
+      <c r="I25" s="26">
         <v>303</v>
       </c>
-      <c r="J25" s="23"/>
+      <c r="J25" s="27"/>
       <c r="K25" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="19">
-      <c r="I26" s="22">
+      <c r="I26" s="26">
         <v>304</v>
       </c>
-      <c r="J26" s="23"/>
+      <c r="J26" s="27"/>
       <c r="K26" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="19">
-      <c r="I27" s="22">
+      <c r="I27" s="26">
         <v>304</v>
       </c>
-      <c r="J27" s="23"/>
+      <c r="J27" s="27"/>
       <c r="K27" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="19">
-      <c r="I28" s="22">
+      <c r="I28" s="26">
         <v>305</v>
       </c>
-      <c r="J28" s="23"/>
+      <c r="J28" s="27"/>
       <c r="K28" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="19">
-      <c r="I29" s="22">
+      <c r="I29" s="26">
         <v>305</v>
       </c>
-      <c r="J29" s="23"/>
+      <c r="J29" s="27"/>
       <c r="K29" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="19">
-      <c r="I30" s="28">
+      <c r="I30" s="24">
         <v>306</v>
       </c>
-      <c r="J30" s="30"/>
+      <c r="J30" s="28"/>
       <c r="K30" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="19">
-      <c r="I31" s="27">
+      <c r="I31" s="23">
         <v>306</v>
       </c>
-      <c r="J31" s="28"/>
+      <c r="J31" s="24"/>
       <c r="K31" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="19">
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
     </row>
     <row r="33" spans="9:12" ht="19">
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
@@ -1949,12 +2082,6 @@
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1971,7 +2098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" workbookViewId="0">
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
@@ -2173,6 +2300,334 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:M18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="9" width="10.83203125" customWidth="1"/>
+    <col min="10" max="10" width="4.83203125" customWidth="1"/>
+    <col min="12" max="12" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:13" ht="19">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" ht="19">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" ht="19">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="19">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:13" ht="19">
+      <c r="A10" s="1"/>
+      <c r="B10" s="22">
+        <v>1</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1</v>
+      </c>
+      <c r="H10" s="22">
+        <v>200</v>
+      </c>
+      <c r="I10" s="22">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="10">
+        <v>200</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" ht="19">
+      <c r="A11" s="1"/>
+      <c r="B11" s="22">
+        <v>2</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="22">
+        <v>2</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="22">
+        <v>1</v>
+      </c>
+      <c r="H11" s="22">
+        <v>201</v>
+      </c>
+      <c r="I11" s="22">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="10">
+        <v>201</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:13" ht="19">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="22">
+        <v>3</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="22">
+        <v>2</v>
+      </c>
+      <c r="H12" s="22">
+        <v>301</v>
+      </c>
+      <c r="I12" s="22">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="10">
+        <v>301</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:13" ht="19">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="22">
+        <v>4</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="22">
+        <v>2</v>
+      </c>
+      <c r="H13" s="22">
+        <v>302</v>
+      </c>
+      <c r="I13" s="22">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="10">
+        <v>302</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:13" ht="19">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="10">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10">
+        <v>14</v>
+      </c>
+      <c r="G14" s="10">
+        <v>2</v>
+      </c>
+      <c r="H14" s="10">
+        <v>303</v>
+      </c>
+      <c r="I14" s="10">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="10">
+        <v>303</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" ht="19">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" ht="19">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="19">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="19">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>

--- a/src/assets/ec-product-db/ec-product-table.xlsx
+++ b/src/assets/ec-product-db/ec-product-table.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="3540" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="13340" yWindow="2760" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="１" sheetId="1" r:id="rId1"/>
     <sheet name="２" sheetId="3" r:id="rId2"/>
     <sheet name="3" sheetId="4" r:id="rId3"/>
     <sheet name="4" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="5_TI" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -436,6 +437,111 @@
     <t>乳</t>
     <rPh sb="0" eb="1">
       <t>ニュウギュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品 (products)</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Railsブランド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷蔵</t>
+    <rPh sb="0" eb="2">
+      <t>レイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乳</t>
+    <rPh sb="0" eb="1">
+      <t>チチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STI(単一テーブル継承)によるテーブル設計</t>
+    <rPh sb="4" eb="6">
+      <t>タンイツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CTI(クラステーブル継承)によるテーブル設計</t>
+    <rPh sb="11" eb="13">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CCI(具象テーブル継承)によるテーブル設計</t>
+    <rPh sb="4" eb="6">
+      <t>グショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cloth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Food</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品(衣類 / clothes)</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品(食品 / foods)</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクヒン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -447,7 +553,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;#,##0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -511,6 +617,27 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="メイリオ"/>
       <charset val="128"/>
     </font>
@@ -590,7 +717,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -636,8 +763,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -702,9 +867,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -712,9 +874,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -726,8 +885,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="83">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -750,6 +929,25 @@
     <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -773,6 +971,25 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="82" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1931,148 +2148,142 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="19">
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="30"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" ht="19">
-      <c r="I20" s="26">
+      <c r="I20" s="25">
         <v>301</v>
       </c>
-      <c r="J20" s="31"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="10">
         <v>10</v>
       </c>
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" ht="19">
-      <c r="I21" s="26">
+      <c r="I21" s="25">
         <v>301</v>
       </c>
-      <c r="J21" s="31"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="10">
         <v>21</v>
       </c>
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="19">
-      <c r="I22" s="26">
+      <c r="I22" s="25">
         <v>302</v>
       </c>
-      <c r="J22" s="31"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="10">
         <v>11</v>
       </c>
       <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" ht="19">
-      <c r="I23" s="26">
+      <c r="I23" s="25">
         <v>302</v>
       </c>
-      <c r="J23" s="27"/>
+      <c r="J23" s="26"/>
       <c r="K23" s="10">
         <v>21</v>
       </c>
       <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12" ht="19">
-      <c r="I24" s="26">
+      <c r="I24" s="25">
         <v>303</v>
       </c>
-      <c r="J24" s="27"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="10">
         <v>12</v>
       </c>
       <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12" ht="19">
-      <c r="I25" s="26">
+      <c r="I25" s="25">
         <v>303</v>
       </c>
-      <c r="J25" s="27"/>
+      <c r="J25" s="26"/>
       <c r="K25" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="19">
-      <c r="I26" s="26">
+      <c r="I26" s="25">
         <v>304</v>
       </c>
-      <c r="J26" s="27"/>
+      <c r="J26" s="26"/>
       <c r="K26" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="19">
-      <c r="I27" s="26">
+      <c r="I27" s="25">
         <v>304</v>
       </c>
-      <c r="J27" s="27"/>
+      <c r="J27" s="26"/>
       <c r="K27" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="19">
-      <c r="I28" s="26">
+      <c r="I28" s="25">
         <v>305</v>
       </c>
-      <c r="J28" s="27"/>
+      <c r="J28" s="26"/>
       <c r="K28" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="19">
-      <c r="I29" s="26">
+      <c r="I29" s="25">
         <v>305</v>
       </c>
-      <c r="J29" s="27"/>
+      <c r="J29" s="26"/>
       <c r="K29" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="19">
-      <c r="I30" s="24">
+      <c r="I30" s="31">
         <v>306</v>
       </c>
-      <c r="J30" s="28"/>
+      <c r="J30" s="33"/>
       <c r="K30" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="19">
-      <c r="I31" s="23">
+      <c r="I31" s="30">
         <v>306</v>
       </c>
-      <c r="J31" s="24"/>
+      <c r="J31" s="31"/>
       <c r="K31" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="19">
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
     </row>
     <row r="33" spans="9:12" ht="19">
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
@@ -2082,6 +2293,12 @@
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2302,7 +2519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:M18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -2628,6 +2845,470 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:I45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:9" ht="22">
+      <c r="B5" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="19">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="19">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="19">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="19">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="19">
+      <c r="A10" s="1"/>
+      <c r="B10" s="23">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="19">
+      <c r="A11" s="1"/>
+      <c r="B11" s="23">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="19">
+      <c r="A12" s="1"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" ht="19">
+      <c r="A13" s="1"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="22">
+      <c r="A14" s="1"/>
+      <c r="B14" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="19">
+      <c r="A15" s="1"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" ht="19">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" ht="19">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" ht="19">
+      <c r="A18" s="1"/>
+      <c r="B18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="19">
+      <c r="A19" s="1"/>
+      <c r="B19" s="23">
+        <v>1</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="19">
+      <c r="A20" s="1"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="1:9" ht="19">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="1:9" ht="19">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="1:9" ht="19">
+      <c r="A23" s="1"/>
+      <c r="B23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="19">
+      <c r="A24" s="1"/>
+      <c r="B24" s="23">
+        <v>2</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="19">
+      <c r="A25" s="1"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+    </row>
+    <row r="26" spans="1:9" ht="19">
+      <c r="A26" s="1"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+    </row>
+    <row r="27" spans="1:9" ht="19">
+      <c r="A27" s="1"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="1:9" ht="22">
+      <c r="A28" s="1"/>
+      <c r="B28" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="19">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="19">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="19">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="19">
+      <c r="B32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="19">
+      <c r="B33" s="23">
+        <v>1</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="19">
+      <c r="B34" s="23">
+        <v>2</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="19">
+      <c r="B37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="2:6" ht="19">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="2:6" ht="19">
+      <c r="B39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="19">
+      <c r="B40" s="23">
+        <v>10</v>
+      </c>
+      <c r="C40" s="23">
+        <v>1</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="19">
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+    </row>
+    <row r="42" spans="2:6" ht="19">
+      <c r="B42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+    </row>
+    <row r="43" spans="2:6" ht="19">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+    </row>
+    <row r="44" spans="2:6" ht="19">
+      <c r="B44" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="19">
+      <c r="B45" s="23">
+        <v>20</v>
+      </c>
+      <c r="C45" s="23">
+        <v>2</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="10">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>

--- a/src/assets/ec-product-db/ec-product-table.xlsx
+++ b/src/assets/ec-product-db/ec-product-table.xlsx
@@ -526,22 +526,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品(衣類 / clothes)</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品(食品 / foods)</t>
     <rPh sb="0" eb="2">
       <t>ショウヒン</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>ショクヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品(衣類 / clothings)</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イルイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -870,19 +870,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -894,15 +887,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2148,142 +2148,148 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="19">
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="28"/>
+      <c r="J19" s="36"/>
       <c r="K19" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12" ht="19">
-      <c r="I20" s="25">
+      <c r="I20" s="32">
         <v>301</v>
       </c>
-      <c r="J20" s="29"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="10">
         <v>10</v>
       </c>
       <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" ht="19">
-      <c r="I21" s="25">
+      <c r="I21" s="32">
         <v>301</v>
       </c>
-      <c r="J21" s="29"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="10">
         <v>21</v>
       </c>
       <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" ht="19">
-      <c r="I22" s="25">
+      <c r="I22" s="32">
         <v>302</v>
       </c>
-      <c r="J22" s="29"/>
+      <c r="J22" s="37"/>
       <c r="K22" s="10">
         <v>11</v>
       </c>
       <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" ht="19">
-      <c r="I23" s="25">
+      <c r="I23" s="32">
         <v>302</v>
       </c>
-      <c r="J23" s="26"/>
+      <c r="J23" s="33"/>
       <c r="K23" s="10">
         <v>21</v>
       </c>
       <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12" ht="19">
-      <c r="I24" s="25">
+      <c r="I24" s="32">
         <v>303</v>
       </c>
-      <c r="J24" s="26"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="10">
         <v>12</v>
       </c>
       <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12" ht="19">
-      <c r="I25" s="25">
+      <c r="I25" s="32">
         <v>303</v>
       </c>
-      <c r="J25" s="26"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="19">
-      <c r="I26" s="25">
+      <c r="I26" s="32">
         <v>304</v>
       </c>
-      <c r="J26" s="26"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="19">
-      <c r="I27" s="25">
+      <c r="I27" s="32">
         <v>304</v>
       </c>
-      <c r="J27" s="26"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="19">
-      <c r="I28" s="25">
+      <c r="I28" s="32">
         <v>305</v>
       </c>
-      <c r="J28" s="26"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="19">
-      <c r="I29" s="25">
+      <c r="I29" s="32">
         <v>305</v>
       </c>
-      <c r="J29" s="26"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="19">
-      <c r="I30" s="31">
+      <c r="I30" s="30">
         <v>306</v>
       </c>
-      <c r="J30" s="33"/>
+      <c r="J30" s="34"/>
       <c r="K30" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="19">
-      <c r="I31" s="30">
+      <c r="I31" s="29">
         <v>306</v>
       </c>
-      <c r="J31" s="31"/>
+      <c r="J31" s="30"/>
       <c r="K31" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="19">
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
       <c r="K32" s="16"/>
       <c r="L32" s="16"/>
     </row>
     <row r="33" spans="9:12" ht="19">
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
       <c r="K33" s="16"/>
       <c r="L33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I33:J33"/>
@@ -2293,12 +2299,6 @@
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2847,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:I45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2862,7 +2862,7 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:9" ht="22">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="25" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2930,13 +2930,13 @@
       <c r="F10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="28" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2951,10 +2951,10 @@
       <c r="D11" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="28" t="s">
         <v>78</v>
       </c>
       <c r="G11" s="10" t="s">
@@ -2972,8 +2972,8 @@
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -2983,21 +2983,21 @@
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" ht="22">
       <c r="A14" s="1"/>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="25" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -3007,8 +3007,8 @@
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -3016,12 +3016,12 @@
     <row r="16" spans="1:9" ht="19">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -3031,8 +3031,8 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
@@ -3076,20 +3076,20 @@
     <row r="21" spans="1:9" ht="19">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="19">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:9" ht="19">
       <c r="A23" s="1"/>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="28" spans="1:9" ht="22">
       <c r="A28" s="1"/>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="26" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="1"/>
@@ -3198,19 +3198,19 @@
     </row>
     <row r="37" spans="2:6" ht="19">
       <c r="B37" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="2:6" ht="19">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
     </row>
     <row r="39" spans="2:6" ht="19">
       <c r="B39" s="12" t="s">
@@ -3247,19 +3247,19 @@
     </row>
     <row r="42" spans="2:6" ht="19">
       <c r="B42" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="36"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
     </row>
     <row r="43" spans="2:6" ht="19">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
     </row>
     <row r="44" spans="2:6" ht="19">
       <c r="B44" s="12" t="s">
